--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H2">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N2">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q2">
-        <v>74.22331639942215</v>
+        <v>308.97893995024</v>
       </c>
       <c r="R2">
-        <v>74.22331639942215</v>
+        <v>2780.81045955216</v>
       </c>
       <c r="S2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="T2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H3">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N3">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q3">
-        <v>70.15793173421012</v>
+        <v>72.86826625967645</v>
       </c>
       <c r="R3">
-        <v>70.15793173421012</v>
+        <v>655.8143963370881</v>
       </c>
       <c r="S3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="T3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H4">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N4">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q4">
-        <v>19.32102071888844</v>
+        <v>20.08648855031867</v>
       </c>
       <c r="R4">
-        <v>19.32102071888844</v>
+        <v>180.778396952868</v>
       </c>
       <c r="S4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="T4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
     </row>
   </sheetData>
